--- a/Applications/StatsAppFunctionality_MOSCOW.xlsx
+++ b/Applications/StatsAppFunctionality_MOSCOW.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>functionality for the statsapp:</t>
   </si>
@@ -84,13 +84,184 @@
   </si>
   <si>
     <t>data comparisson</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>IDEA CHANGED</t>
+  </si>
+  <si>
+    <t>schdeuled state archivation</t>
+  </si>
+  <si>
+    <t>total revenue from the salepoints</t>
+  </si>
+  <si>
+    <t>product stock analytics</t>
+  </si>
+  <si>
+    <t>dynamic overview</t>
+  </si>
+  <si>
+    <t>Visitors module:</t>
+  </si>
+  <si>
+    <t>Current visitors</t>
+  </si>
+  <si>
+    <t>Expected visitors</t>
+  </si>
+  <si>
+    <t>Total visitor balance</t>
+  </si>
+  <si>
+    <t>Quantity of visitors staying at the camping</t>
+  </si>
+  <si>
+    <t>Number of visitors per day</t>
+  </si>
+  <si>
+    <t>Products module:</t>
+  </si>
+  <si>
+    <t>Total sales of a product</t>
+  </si>
+  <si>
+    <t>Time-to-quantity relation and dynamics</t>
+  </si>
+  <si>
+    <t>Global running out of stock notification</t>
+  </si>
+  <si>
+    <t>Global stock per product</t>
+  </si>
+  <si>
+    <t>Currently attending activities</t>
+  </si>
+  <si>
+    <t>call to action + log</t>
+  </si>
+  <si>
+    <t>notifications + log</t>
+  </si>
+  <si>
+    <t>visitor complaints + log</t>
+  </si>
+  <si>
+    <t>"---EXTRA</t>
+  </si>
+  <si>
+    <t>Complaints</t>
+  </si>
+  <si>
+    <t>Support cases</t>
+  </si>
+  <si>
+    <t>Rule Violations</t>
+  </si>
+  <si>
+    <t>Timeline overview of dynamics</t>
+  </si>
+  <si>
+    <t>Order more call to action</t>
+  </si>
+  <si>
+    <t>Time-to-sales relation and dynamics</t>
+  </si>
+  <si>
+    <t>Emloyee notification logs</t>
+  </si>
+  <si>
+    <t>Stores module:</t>
+  </si>
+  <si>
+    <t>Product stock per store</t>
+  </si>
+  <si>
+    <t>Total sales per store</t>
+  </si>
+  <si>
+    <t>Total revenue per product</t>
+  </si>
+  <si>
+    <t>Individual store analytics</t>
+  </si>
+  <si>
+    <t>Running out of stock notification</t>
+  </si>
+  <si>
+    <t>Product popularity</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>visual data representation</t>
+  </si>
+  <si>
+    <t>Total value of service payments</t>
+  </si>
+  <si>
+    <t>Visitors per activity</t>
+  </si>
+  <si>
+    <t>Reserved places via website</t>
+  </si>
+  <si>
+    <t>Realtime number of visitors</t>
+  </si>
+  <si>
+    <t>Activities per number of visitors</t>
+  </si>
+  <si>
+    <t>Activities &amp; Location module:</t>
+  </si>
+  <si>
+    <t>Number of visitors per location type</t>
+  </si>
+  <si>
+    <t>{Camp, Activities, Grounds}</t>
+  </si>
+  <si>
+    <t>Available places per activity</t>
+  </si>
+  <si>
+    <t>Saving data on activity finish</t>
+  </si>
+  <si>
+    <t>Finance module:</t>
+  </si>
+  <si>
+    <t>Global revenue from sales</t>
+  </si>
+  <si>
+    <t>Global money amount from services</t>
+  </si>
+  <si>
+    <t>Money per product</t>
+  </si>
+  <si>
+    <t>Time-to-revenue relation and dynamics</t>
+  </si>
+  <si>
+    <t>Income rates</t>
+  </si>
+  <si>
+    <t>Money per time</t>
+  </si>
+  <si>
+    <t>Total visitor balance network value</t>
+  </si>
+  <si>
+    <t>Visual data and graphs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +292,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +344,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -176,12 +373,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -193,10 +416,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:AI279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,14 +725,68 @@
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="9" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -513,76 +804,2714 @@
       <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="20"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="20"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="20"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="20"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="20"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="20"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="20"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="20"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="20"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="20"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="20"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="20"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="20"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="20"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="20"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="20"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="20"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="20"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="20"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="20"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="20"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="20"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="20"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="20"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="20"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="20"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="20"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="20"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="20"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="20"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="20"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="20"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="20"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="20"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="20"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="20"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="20"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="20"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="20"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="20"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="20"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="20"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="20"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="20"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="20"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="20"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="20"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="20"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="20"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="20"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="20"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="20"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="20"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="20"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="20"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="20"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="20"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="20"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="20"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="20"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="20"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="20"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="20"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="20"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="20"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="20"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="20"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="20"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="20"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="20"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="20"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="20"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="20"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="16"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="20"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="16"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="20"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="20"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="16"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="20"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="16"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="20"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="16"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="20"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="20"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="16"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="20"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="20"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="16"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="20"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="16"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="20"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="20"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="16"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="20"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="16"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="20"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="16"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="20"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="16"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="20"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="16"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="20"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="16"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="20"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="16"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="20"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="16"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="20"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="16"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="20"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="16"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="20"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="16"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="20"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="20"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="16"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="20"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="16"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="20"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="20"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="20"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="16"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="20"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="16"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="20"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="16"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="20"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="16"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="20"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="20"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="16"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="18"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="20"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="18"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="20"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="16"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="20"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="16"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="20"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="16"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="19"/>
+      <c r="G201" s="20"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="16"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="16"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="20"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="20"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="16"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="20"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="16"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="20"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="16"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="20"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="16"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="20"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="16"/>
+      <c r="B208" s="16"/>
+      <c r="C208" s="16"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="20"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="16"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="16"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="20"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="16"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="19"/>
+      <c r="G210" s="20"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="16"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="20"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="16"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="17"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="20"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="16"/>
+      <c r="B213" s="16"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="18"/>
+      <c r="F213" s="19"/>
+      <c r="G213" s="20"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="16"/>
+      <c r="B214" s="16"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="17"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="20"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="16"/>
+      <c r="B215" s="16"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="19"/>
+      <c r="G215" s="20"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="16"/>
+      <c r="B216" s="16"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="17"/>
+      <c r="E216" s="18"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="20"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="16"/>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="17"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="20"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="16"/>
+      <c r="B218" s="16"/>
+      <c r="C218" s="16"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="19"/>
+      <c r="G218" s="20"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="16"/>
+      <c r="B219" s="16"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="18"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="20"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="16"/>
+      <c r="B220" s="16"/>
+      <c r="C220" s="16"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="20"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="16"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="19"/>
+      <c r="G221" s="20"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="16"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="17"/>
+      <c r="E222" s="18"/>
+      <c r="F222" s="19"/>
+      <c r="G222" s="20"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="16"/>
+      <c r="B223" s="16"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="18"/>
+      <c r="F223" s="19"/>
+      <c r="G223" s="20"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="16"/>
+      <c r="B224" s="16"/>
+      <c r="C224" s="16"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="18"/>
+      <c r="F224" s="19"/>
+      <c r="G224" s="20"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="16"/>
+      <c r="B225" s="16"/>
+      <c r="C225" s="16"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="18"/>
+      <c r="F225" s="19"/>
+      <c r="G225" s="20"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="16"/>
+      <c r="B226" s="16"/>
+      <c r="C226" s="16"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="18"/>
+      <c r="F226" s="19"/>
+      <c r="G226" s="20"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="16"/>
+      <c r="B227" s="16"/>
+      <c r="C227" s="16"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="18"/>
+      <c r="F227" s="19"/>
+      <c r="G227" s="20"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="16"/>
+      <c r="B228" s="16"/>
+      <c r="C228" s="16"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="19"/>
+      <c r="G228" s="20"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="16"/>
+      <c r="B229" s="16"/>
+      <c r="C229" s="16"/>
+      <c r="D229" s="17"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="19"/>
+      <c r="G229" s="20"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="16"/>
+      <c r="B230" s="16"/>
+      <c r="C230" s="16"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="20"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="16"/>
+      <c r="B231" s="16"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="19"/>
+      <c r="G231" s="20"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="16"/>
+      <c r="B232" s="16"/>
+      <c r="C232" s="16"/>
+      <c r="D232" s="17"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="20"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="16"/>
+      <c r="B233" s="16"/>
+      <c r="C233" s="16"/>
+      <c r="D233" s="17"/>
+      <c r="E233" s="18"/>
+      <c r="F233" s="19"/>
+      <c r="G233" s="20"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+      <c r="B234" s="16"/>
+      <c r="C234" s="16"/>
+      <c r="D234" s="17"/>
+      <c r="E234" s="18"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="20"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+      <c r="B235" s="16"/>
+      <c r="C235" s="16"/>
+      <c r="D235" s="17"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="19"/>
+      <c r="G235" s="20"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="16"/>
+      <c r="B236" s="16"/>
+      <c r="C236" s="16"/>
+      <c r="D236" s="17"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="19"/>
+      <c r="G236" s="20"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="16"/>
+      <c r="B237" s="16"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="17"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="19"/>
+      <c r="G237" s="20"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="19"/>
+      <c r="G238" s="20"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="16"/>
+      <c r="B239" s="16"/>
+      <c r="C239" s="16"/>
+      <c r="D239" s="17"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="19"/>
+      <c r="G239" s="20"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="16"/>
+      <c r="B240" s="16"/>
+      <c r="C240" s="16"/>
+      <c r="D240" s="17"/>
+      <c r="E240" s="18"/>
+      <c r="F240" s="19"/>
+      <c r="G240" s="20"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="16"/>
+      <c r="B241" s="16"/>
+      <c r="C241" s="16"/>
+      <c r="D241" s="17"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="19"/>
+      <c r="G241" s="20"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="16"/>
+      <c r="B242" s="16"/>
+      <c r="C242" s="16"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="18"/>
+      <c r="F242" s="19"/>
+      <c r="G242" s="20"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="16"/>
+      <c r="B243" s="16"/>
+      <c r="C243" s="16"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="19"/>
+      <c r="G243" s="20"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+      <c r="B244" s="16"/>
+      <c r="C244" s="16"/>
+      <c r="D244" s="17"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="19"/>
+      <c r="G244" s="20"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="16"/>
+      <c r="B245" s="16"/>
+      <c r="C245" s="16"/>
+      <c r="D245" s="17"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="19"/>
+      <c r="G245" s="20"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+      <c r="B246" s="16"/>
+      <c r="C246" s="16"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="19"/>
+      <c r="G246" s="20"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="16"/>
+      <c r="B247" s="16"/>
+      <c r="C247" s="16"/>
+      <c r="D247" s="17"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="19"/>
+      <c r="G247" s="20"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="16"/>
+      <c r="B248" s="16"/>
+      <c r="C248" s="16"/>
+      <c r="D248" s="17"/>
+      <c r="E248" s="18"/>
+      <c r="F248" s="19"/>
+      <c r="G248" s="20"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="16"/>
+      <c r="B249" s="16"/>
+      <c r="C249" s="16"/>
+      <c r="D249" s="17"/>
+      <c r="E249" s="18"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="20"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="16"/>
+      <c r="B250" s="16"/>
+      <c r="C250" s="16"/>
+      <c r="D250" s="17"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="19"/>
+      <c r="G250" s="20"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="16"/>
+      <c r="B251" s="16"/>
+      <c r="C251" s="16"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="19"/>
+      <c r="G251" s="20"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="16"/>
+      <c r="B252" s="16"/>
+      <c r="C252" s="16"/>
+      <c r="D252" s="17"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="20"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="16"/>
+      <c r="B253" s="16"/>
+      <c r="C253" s="16"/>
+      <c r="D253" s="17"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="19"/>
+      <c r="G253" s="20"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="16"/>
+      <c r="B254" s="16"/>
+      <c r="C254" s="16"/>
+      <c r="D254" s="17"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="19"/>
+      <c r="G254" s="20"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="16"/>
+      <c r="B255" s="16"/>
+      <c r="C255" s="16"/>
+      <c r="D255" s="17"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="19"/>
+      <c r="G255" s="20"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="16"/>
+      <c r="B256" s="16"/>
+      <c r="C256" s="16"/>
+      <c r="D256" s="17"/>
+      <c r="E256" s="18"/>
+      <c r="F256" s="19"/>
+      <c r="G256" s="20"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="16"/>
+      <c r="B257" s="16"/>
+      <c r="C257" s="16"/>
+      <c r="D257" s="17"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="19"/>
+      <c r="G257" s="20"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="16"/>
+      <c r="B258" s="16"/>
+      <c r="C258" s="16"/>
+      <c r="D258" s="17"/>
+      <c r="E258" s="18"/>
+      <c r="F258" s="19"/>
+      <c r="G258" s="20"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="16"/>
+      <c r="B259" s="16"/>
+      <c r="C259" s="16"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="19"/>
+      <c r="G259" s="20"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="16"/>
+      <c r="B260" s="16"/>
+      <c r="C260" s="16"/>
+      <c r="D260" s="17"/>
+      <c r="E260" s="18"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="20"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="16"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="16"/>
+      <c r="D261" s="17"/>
+      <c r="E261" s="18"/>
+      <c r="F261" s="19"/>
+      <c r="G261" s="20"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="16"/>
+      <c r="B262" s="16"/>
+      <c r="C262" s="16"/>
+      <c r="D262" s="17"/>
+      <c r="E262" s="18"/>
+      <c r="F262" s="19"/>
+      <c r="G262" s="20"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="16"/>
+      <c r="B263" s="16"/>
+      <c r="C263" s="16"/>
+      <c r="D263" s="17"/>
+      <c r="E263" s="18"/>
+      <c r="F263" s="19"/>
+      <c r="G263" s="20"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="16"/>
+      <c r="B264" s="16"/>
+      <c r="C264" s="16"/>
+      <c r="D264" s="17"/>
+      <c r="E264" s="18"/>
+      <c r="F264" s="19"/>
+      <c r="G264" s="20"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="16"/>
+      <c r="B265" s="16"/>
+      <c r="C265" s="16"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="19"/>
+      <c r="G265" s="20"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="16"/>
+      <c r="B266" s="16"/>
+      <c r="C266" s="16"/>
+      <c r="D266" s="17"/>
+      <c r="E266" s="18"/>
+      <c r="F266" s="19"/>
+      <c r="G266" s="20"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="16"/>
+      <c r="B267" s="16"/>
+      <c r="C267" s="16"/>
+      <c r="D267" s="17"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="19"/>
+      <c r="G267" s="20"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="16"/>
+      <c r="B268" s="16"/>
+      <c r="C268" s="16"/>
+      <c r="D268" s="17"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="19"/>
+      <c r="G268" s="20"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="16"/>
+      <c r="B269" s="16"/>
+      <c r="C269" s="16"/>
+      <c r="D269" s="17"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="19"/>
+      <c r="G269" s="20"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="16"/>
+      <c r="B270" s="16"/>
+      <c r="C270" s="16"/>
+      <c r="D270" s="17"/>
+      <c r="E270" s="18"/>
+      <c r="F270" s="19"/>
+      <c r="G270" s="20"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="16"/>
+      <c r="B271" s="16"/>
+      <c r="C271" s="16"/>
+      <c r="D271" s="17"/>
+      <c r="E271" s="18"/>
+      <c r="F271" s="19"/>
+      <c r="G271" s="20"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="16"/>
+      <c r="B272" s="16"/>
+      <c r="C272" s="16"/>
+      <c r="D272" s="17"/>
+      <c r="E272" s="18"/>
+      <c r="F272" s="19"/>
+      <c r="G272" s="20"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="16"/>
+      <c r="B273" s="16"/>
+      <c r="C273" s="16"/>
+      <c r="D273" s="17"/>
+      <c r="E273" s="18"/>
+      <c r="F273" s="19"/>
+      <c r="G273" s="20"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="16"/>
+      <c r="B274" s="16"/>
+      <c r="C274" s="16"/>
+      <c r="D274" s="17"/>
+      <c r="E274" s="18"/>
+      <c r="F274" s="19"/>
+      <c r="G274" s="20"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="16"/>
+      <c r="B275" s="16"/>
+      <c r="C275" s="16"/>
+      <c r="D275" s="17"/>
+      <c r="E275" s="18"/>
+      <c r="F275" s="19"/>
+      <c r="G275" s="20"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="16"/>
+      <c r="B276" s="16"/>
+      <c r="C276" s="16"/>
+      <c r="D276" s="17"/>
+      <c r="E276" s="18"/>
+      <c r="F276" s="19"/>
+      <c r="G276" s="20"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="16"/>
+      <c r="B277" s="16"/>
+      <c r="C277" s="16"/>
+      <c r="D277" s="17"/>
+      <c r="E277" s="18"/>
+      <c r="F277" s="19"/>
+      <c r="G277" s="20"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="16"/>
+      <c r="B278" s="16"/>
+      <c r="C278" s="16"/>
+      <c r="D278" s="17"/>
+      <c r="E278" s="18"/>
+      <c r="F278" s="19"/>
+      <c r="G278" s="20"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="10"/>
+      <c r="B279" s="10"/>
+      <c r="C279" s="10"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="7"/>
+      <c r="G279" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Applications/StatsAppFunctionality_MOSCOW.xlsx
+++ b/Applications/StatsAppFunctionality_MOSCOW.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>functionality for the statsapp:</t>
   </si>
@@ -255,13 +255,148 @@
   </si>
   <si>
     <t>Visual data and graphs</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application to generate and populate the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">database with a large number of </t>
+  </si>
+  <si>
+    <t>random 4-char codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application for visitor support in cases </t>
+  </si>
+  <si>
+    <t>of identification-related exceptions and other</t>
+  </si>
+  <si>
+    <t>issues</t>
+  </si>
+  <si>
+    <t>Notification Center</t>
+  </si>
+  <si>
+    <t>Application for the shops and sale points</t>
+  </si>
+  <si>
+    <t>Paused due to issues</t>
+  </si>
+  <si>
+    <t>General APP</t>
+  </si>
+  <si>
+    <t>Application for assigning and deactivating bracelets</t>
+  </si>
+  <si>
+    <t>&gt;&gt; Requires modifications in logics behind assigning new</t>
+  </si>
+  <si>
+    <t>bracelets</t>
+  </si>
+  <si>
+    <t>Application for controlling the event entrance procedure</t>
+  </si>
+  <si>
+    <t>Application for entering the reserved activity</t>
+  </si>
+  <si>
+    <t>Stable - Frozen</t>
+  </si>
+  <si>
+    <t>Stable - Testing stage</t>
+  </si>
+  <si>
+    <t>Application for generating random codes</t>
+  </si>
+  <si>
+    <t>Administrative application for data tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application for controlling the camping </t>
+  </si>
+  <si>
+    <t>entrance procedure</t>
+  </si>
+  <si>
+    <t>Application for the tent payment terminal</t>
+  </si>
+  <si>
+    <t>and inspecting the status of the event</t>
+  </si>
+  <si>
+    <t>Application for loaning the necessary equipment</t>
+  </si>
+  <si>
+    <t>Considered {Only extras left}</t>
+  </si>
+  <si>
+    <t>Application for entering the activity entrance</t>
+  </si>
+  <si>
+    <t>new tables for archives</t>
+  </si>
+  <si>
+    <t>a lot of views</t>
+  </si>
+  <si>
+    <t>scheduled events to generate t.data</t>
+  </si>
+  <si>
+    <t>General app functionality:</t>
+  </si>
+  <si>
+    <t>Starting other applications</t>
+  </si>
+  <si>
+    <t>Sending data</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>Employee complaints and notificiations</t>
+  </si>
+  <si>
+    <t>Alerts and alarms</t>
+  </si>
+  <si>
+    <t>User verification</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>General statistical information</t>
+  </si>
+  <si>
+    <t>Loaning app functionality:</t>
+  </si>
+  <si>
+    <t>Barcode scanner</t>
+  </si>
+  <si>
+    <t>Registring returns and issues of the items</t>
+  </si>
+  <si>
+    <t>Adding new items to the database</t>
+  </si>
+  <si>
+    <t>If missed the due data ask to pay more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add the missed payment alert to a respective db </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,8 +442,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +511,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -398,13 +582,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -428,10 +614,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -713,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1123,7 +1316,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1329,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1342,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
@@ -1161,8 +1354,44 @@
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
@@ -1174,8 +1403,23 @@
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" t="s">
+        <v>97</v>
+      </c>
+      <c r="T21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>40</v>
       </c>
@@ -1187,8 +1431,17 @@
         <v>20</v>
       </c>
       <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>39</v>
       </c>
@@ -1200,8 +1453,14 @@
         <v>20</v>
       </c>
       <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>38</v>
       </c>
@@ -1213,8 +1472,11 @@
         <v>20</v>
       </c>
       <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>57</v>
       </c>
@@ -1226,35 +1488,68 @@
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="J25" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19"/>
       <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="J26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
+      <c r="E27" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="J27" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1262,8 +1557,14 @@
       <c r="E29" s="18"/>
       <c r="F29" s="19"/>
       <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+      <c r="O29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1272,7 +1573,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1280,8 +1581,14 @@
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1290,7 +1597,7 @@
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1299,7 +1606,7 @@
       <c r="F33" s="19"/>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1308,7 +1615,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1317,7 +1624,7 @@
       <c r="F35" s="19"/>
       <c r="G35" s="20"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -1326,7 +1633,7 @@
       <c r="F36" s="19"/>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -1335,7 +1642,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="20"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -1343,8 +1650,22 @@
       <c r="E38" s="18"/>
       <c r="F38" s="19"/>
       <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J38" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -1352,8 +1673,14 @@
       <c r="E39" s="18"/>
       <c r="F39" s="19"/>
       <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>108</v>
+      </c>
+      <c r="O39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -1361,8 +1688,14 @@
       <c r="E40" s="18"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>109</v>
+      </c>
+      <c r="O40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -1370,8 +1703,14 @@
       <c r="E41" s="18"/>
       <c r="F41" s="19"/>
       <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>110</v>
+      </c>
+      <c r="O41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -1379,8 +1718,14 @@
       <c r="E42" s="18"/>
       <c r="F42" s="19"/>
       <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>111</v>
+      </c>
+      <c r="O42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -1388,8 +1733,14 @@
       <c r="E43" s="18"/>
       <c r="F43" s="19"/>
       <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>112</v>
+      </c>
+      <c r="O43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -1397,8 +1748,11 @@
       <c r="E44" s="18"/>
       <c r="F44" s="19"/>
       <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -1406,8 +1760,11 @@
       <c r="E45" s="18"/>
       <c r="F45" s="19"/>
       <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -1415,8 +1772,11 @@
       <c r="E46" s="18"/>
       <c r="F46" s="19"/>
       <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -1425,7 +1785,7 @@
       <c r="F47" s="19"/>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>

--- a/Applications/StatsAppFunctionality_MOSCOW.xlsx
+++ b/Applications/StatsAppFunctionality_MOSCOW.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
   <si>
     <t>functionality for the statsapp:</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t xml:space="preserve">Add the missed payment alert to a respective db </t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -906,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,6 +972,9 @@
       <c r="O2" t="s">
         <v>36</v>
       </c>
+      <c r="S2" t="s">
+        <v>122</v>
+      </c>
       <c r="T2" t="s">
         <v>50</v>
       </c>
@@ -1002,6 +1008,9 @@
       </c>
       <c r="O3" t="s">
         <v>33</v>
+      </c>
+      <c r="S3" t="s">
+        <v>122</v>
       </c>
       <c r="T3" t="s">
         <v>51</v>
@@ -1113,6 +1122,9 @@
       <c r="O7" t="s">
         <v>52</v>
       </c>
+      <c r="S7" t="s">
+        <v>122</v>
+      </c>
       <c r="T7" t="s">
         <v>54</v>
       </c>
@@ -1159,6 +1171,9 @@
       </c>
       <c r="O9" t="s">
         <v>55</v>
+      </c>
+      <c r="S9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
